--- a/tests/test_files/xdc_test.xlsx
+++ b/tests/test_files/xdc_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gonzalovidal/Documents/GitHub/Excel-to-Flapjack/excel2flapjack/tests/test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/520a30bd1591a3d5/Desktop/Myers_lab/exceltoflapjack/Excel-to-Flapjack/tests/test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADBE8BE-7DBF-5F49-ADD8-907573FFEB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="13_ncr:1_{0ADBE8BE-7DBF-5F49-ADD8-907573FFEB8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99A75EC5-C1A9-4827-8E55-2B863B3CB8D7}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29400" windowHeight="17320" tabRatio="943" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" tabRatio="943" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Init" sheetId="9" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="215">
   <si>
     <t>Role</t>
   </si>
@@ -184,9 +184,6 @@
     <t>http://sbols.org/v2#</t>
   </si>
   <si>
-    <t>DNA1</t>
-  </si>
-  <si>
     <t>Molecule Type</t>
   </si>
   <si>
@@ -217,15 +214,6 @@
     <t>fj_pubchemId</t>
   </si>
   <si>
-    <t>ATC</t>
-  </si>
-  <si>
-    <t>Pubchem 1</t>
-  </si>
-  <si>
-    <t>Chemical2</t>
-  </si>
-  <si>
     <t>NAME</t>
   </si>
   <si>
@@ -286,12 +274,6 @@
     <t>Supplement</t>
   </si>
   <si>
-    <t>Supplement1</t>
-  </si>
-  <si>
-    <t>Sample1</t>
-  </si>
-  <si>
     <t>FunctionalComponent</t>
   </si>
   <si>
@@ -307,9 +289,6 @@
     <t>Concentration</t>
   </si>
   <si>
-    <t>Supplement2</t>
-  </si>
-  <si>
     <t>plasmid</t>
   </si>
   <si>
@@ -334,9 +313,6 @@
     <t>Media</t>
   </si>
   <si>
-    <t>induction</t>
-  </si>
-  <si>
     <t>Media ID</t>
   </si>
   <si>
@@ -352,24 +328,12 @@
     <t>Signal</t>
   </si>
   <si>
-    <t>GFP</t>
-  </si>
-  <si>
-    <t>green</t>
-  </si>
-  <si>
     <t>Signal ID</t>
   </si>
   <si>
     <t>Signal Name</t>
   </si>
   <si>
-    <t>fluorescent</t>
-  </si>
-  <si>
-    <t>Signal1</t>
-  </si>
-  <si>
     <t>Signal Description</t>
   </si>
   <si>
@@ -403,18 +367,12 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Measurement1</t>
-  </si>
-  <si>
     <t>Sample Design</t>
   </si>
   <si>
     <t>Sample Design ID</t>
   </si>
   <si>
-    <t>SampleDesign1</t>
-  </si>
-  <si>
     <t>sbol_wasDerivedFrom</t>
   </si>
   <si>
@@ -430,15 +388,9 @@
     <t>Assay ID</t>
   </si>
   <si>
-    <t>Assay1</t>
-  </si>
-  <si>
     <t>ExperimentalData</t>
   </si>
   <si>
-    <t>Assay2</t>
-  </si>
-  <si>
     <t>Assay</t>
   </si>
   <si>
@@ -472,12 +424,6 @@
     <t>fj_column</t>
   </si>
   <si>
-    <t>HTX Synergy</t>
-  </si>
-  <si>
-    <t>Study1</t>
-  </si>
-  <si>
     <t>Experiment</t>
   </si>
   <si>
@@ -490,114 +436,15 @@
     <t>DOI</t>
   </si>
   <si>
-    <t>Reporter behaviour</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1371/journal.pone.0187163</t>
-  </si>
-  <si>
     <t>Collection</t>
   </si>
   <si>
-    <t>M9Glucose</t>
-  </si>
-  <si>
     <t>sbol_definition</t>
   </si>
   <si>
-    <t>E.coli T7</t>
-  </si>
-  <si>
-    <t>SampleDesign2</t>
-  </si>
-  <si>
-    <t>Measurement0</t>
-  </si>
-  <si>
-    <t>Measurement2</t>
-  </si>
-  <si>
-    <t>Signal9</t>
-  </si>
-  <si>
-    <t>Biomass</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>Sample3</t>
-  </si>
-  <si>
-    <t>Sample2</t>
-  </si>
-  <si>
-    <t>Sample4</t>
-  </si>
-  <si>
-    <t>EcoliT7</t>
-  </si>
-  <si>
-    <t>Repressilator Low Degradation</t>
-  </si>
-  <si>
-    <t>Repressilator High Degradation</t>
-  </si>
-  <si>
-    <t>GFP Plate 1</t>
-  </si>
-  <si>
-    <t>GFP Plate 2</t>
-  </si>
-  <si>
-    <t>Behaviour of genetic circuits containing different degradation in FluoPi's image based experiments</t>
-  </si>
-  <si>
-    <t>DNA2</t>
-  </si>
-  <si>
-    <t>Rep_HIGH_degrate</t>
-  </si>
-  <si>
-    <t>Rep_LOW_degrate</t>
-  </si>
-  <si>
-    <t>Rep_HIGH_degrate_plasmid</t>
-  </si>
-  <si>
-    <t>Rep_LOW_degrate_plasmid</t>
-  </si>
-  <si>
     <t>engineered_region</t>
   </si>
   <si>
-    <t>Chemical1</t>
-  </si>
-  <si>
-    <t>Inducer</t>
-  </si>
-  <si>
-    <t>IPTG</t>
-  </si>
-  <si>
-    <t>Pubchem 2</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>DNA3</t>
-  </si>
-  <si>
-    <t>Reporter</t>
-  </si>
-  <si>
     <t>ColName</t>
   </si>
   <si>
@@ -616,9 +463,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>dnas</t>
-  </si>
-  <si>
     <t>color</t>
   </si>
   <si>
@@ -670,9 +514,6 @@
     <t>supplement</t>
   </si>
   <si>
-    <t xml:space="preserve">Sample </t>
-  </si>
-  <si>
     <t>vector</t>
   </si>
   <si>
@@ -701,13 +542,166 @@
   </si>
   <si>
     <t>Not_applicable</t>
+  </si>
+  <si>
+    <t>Test Plate 1</t>
+  </si>
+  <si>
+    <t>Test Plate 2</t>
+  </si>
+  <si>
+    <t>Test Machine</t>
+  </si>
+  <si>
+    <t>e2f testing</t>
+  </si>
+  <si>
+    <t>testing for e2f upload</t>
+  </si>
+  <si>
+    <t>TestStudy</t>
+  </si>
+  <si>
+    <t>TestSample1</t>
+  </si>
+  <si>
+    <t>TestSample2</t>
+  </si>
+  <si>
+    <t>TestSample3</t>
+  </si>
+  <si>
+    <t>TestSample4</t>
+  </si>
+  <si>
+    <t>TestAssay1</t>
+  </si>
+  <si>
+    <t>TestAssay2</t>
+  </si>
+  <si>
+    <t>TestSampleDesign1</t>
+  </si>
+  <si>
+    <t>TestSampleDesign2</t>
+  </si>
+  <si>
+    <t>TestGlucose</t>
+  </si>
+  <si>
+    <t>TestEcoli</t>
+  </si>
+  <si>
+    <t>Test_Rep_HIGH_degrate_plasmid</t>
+  </si>
+  <si>
+    <t>Test_Rep_LOW_degrate_plasmid</t>
+  </si>
+  <si>
+    <t>TestMeasurement0</t>
+  </si>
+  <si>
+    <t>TestMeasurement1</t>
+  </si>
+  <si>
+    <t>TestMeasurement2</t>
+  </si>
+  <si>
+    <t>TestSignalA</t>
+  </si>
+  <si>
+    <t>TestSignalB</t>
+  </si>
+  <si>
+    <t>TestBiomass</t>
+  </si>
+  <si>
+    <t>TestGFP</t>
+  </si>
+  <si>
+    <t>Testing for biomass</t>
+  </si>
+  <si>
+    <t>Testing for fluorescence</t>
+  </si>
+  <si>
+    <t>TestBlack</t>
+  </si>
+  <si>
+    <t>TestGreen</t>
+  </si>
+  <si>
+    <t>testing: induction</t>
+  </si>
+  <si>
+    <t>TestChemical1</t>
+  </si>
+  <si>
+    <t>TestChemical2</t>
+  </si>
+  <si>
+    <t>TestATC</t>
+  </si>
+  <si>
+    <t>TestIPTG</t>
+  </si>
+  <si>
+    <t>TestSupplement1</t>
+  </si>
+  <si>
+    <t>TestSupplement2</t>
+  </si>
+  <si>
+    <t>TestATCInducer</t>
+  </si>
+  <si>
+    <t>TestIPTGInducer</t>
+  </si>
+  <si>
+    <t>Test pubchem1</t>
+  </si>
+  <si>
+    <t>Test pubchem2</t>
+  </si>
+  <si>
+    <t>TestDNA1</t>
+  </si>
+  <si>
+    <t>TestDNA2</t>
+  </si>
+  <si>
+    <t>Test for Repressilator Low Degradation</t>
+  </si>
+  <si>
+    <t>Test for Repressilator High Degradation</t>
+  </si>
+  <si>
+    <t>TestDNA3</t>
+  </si>
+  <si>
+    <t>Test_Rep_HIGH_degrate</t>
+  </si>
+  <si>
+    <t>Test_Rep_LOW_degrate</t>
+  </si>
+  <si>
+    <t>Test_Reporter</t>
+  </si>
+  <si>
+    <t>https://doi.org/thisisatest</t>
+  </si>
+  <si>
+    <t>dna</t>
+  </si>
+  <si>
+    <t>sampledesign</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="22">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -838,17 +832,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -940,7 +930,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -980,15 +970,34 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="123">
+    <dxf>
+      <font>
+        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1031,6 +1040,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1051,6 +1070,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1071,6 +1100,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1111,6 +1150,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1121,6 +1180,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1151,6 +1220,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1171,6 +1250,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1201,6 +1300,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1251,6 +1360,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1261,6 +1380,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1271,6 +1400,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1291,6 +1430,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1341,6 +1500,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1351,6 +1520,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1361,6 +1540,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1411,16 +1600,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1436,176 +1615,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2318,26 +2327,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2355,7 +2345,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2522,10 +2511,17 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2563,30 +2559,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -2671,9 +2643,9 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Library-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="123"/>
-      <tableStyleElement type="firstRowStripe" dxfId="122"/>
-      <tableStyleElement type="secondRowStripe" dxfId="121"/>
+      <tableStyleElement type="headerRow" dxfId="122"/>
+      <tableStyleElement type="firstRowStripe" dxfId="121"/>
+      <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2700,7 +2672,7 @@
       <xdr:col>18</xdr:col>
       <xdr:colOff>199775</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>70403</xdr:rowOff>
+      <xdr:rowOff>60878</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2753,8 +2725,12 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A10:M23" totalsRowShown="0" headerRowDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A10:M23" totalsRowShown="0" headerRowDxfId="119">
   <autoFilter ref="A10:M23" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Sheet Name"/>
@@ -2779,8 +2755,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Table_1789410" displayName="Table_1789410" ref="A1:C2">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="Media ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Media Name" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Media Description" dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="Media Name" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Media Description" dataDxfId="79"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2790,21 +2766,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Table_178941011" displayName="Table_178941011" ref="A1:C2">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="Strain ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Strain Name" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Strain Description" dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Strain Name" dataDxfId="78"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Strain Description" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_17894101112" displayName="Table_17894101112" ref="A1:E3" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Table_17894101112" displayName="Table_17894101112" ref="A1:E3" dataDxfId="76">
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Supplement ID" dataDxfId="74"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="Sample ID" dataDxfId="73"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Chemical ID" dataDxfId="72"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Supplement Name" dataDxfId="71"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Concentration" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="Supplement ID" dataDxfId="75"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0B00-00000C000000}" name="Sample ID" dataDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Chemical ID" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0B00-000006000000}" name="Supplement Name" dataDxfId="72"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="Concentration" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2814,9 +2790,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF0C000000}" name="Table_178941011121314" displayName="Table_178941011121314" ref="A1:D3">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0C00-000001000000}" name="Chemical ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Chemical Name" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Chemical Description" dataDxfId="68"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Pubchem ID" dataDxfId="67"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0C00-000005000000}" name="Chemical Name" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0C00-000002000000}" name="Chemical Description" dataDxfId="69"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0C00-000004000000}" name="Pubchem ID" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2825,9 +2801,9 @@
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF0D000000}" name="Table_1789410111213" displayName="Table_1789410111213" ref="A1:C3">
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Vector ID" dataDxfId="66"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="DNA ID" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Vector Name" dataDxfId="64"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0D00-000001000000}" name="Vector ID" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0D00-00000C000000}" name="DNA ID" dataDxfId="66"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0D00-000002000000}" name="Vector Name" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2836,46 +2812,46 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{00000000-000C-0000-FFFF-FFFF0E000000}" name="Table_17894101112131415" displayName="Table_17894101112131415" ref="A1:B4">
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="DNA ID" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="DNA Name" dataDxfId="62"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0E00-000001000000}" name="DNA ID" dataDxfId="64"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0E00-000002000000}" name="DNA Name" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table46" displayName="Table46" ref="A1:Q52" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table46" displayName="Table46" ref="A1:Q52" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <autoFilter ref="A1:Q52" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="17">
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Sheet Name" dataDxfId="117"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column Name" dataDxfId="116"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Multicolumn" dataDxfId="115"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Sheet Name" dataDxfId="116"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Column Name" dataDxfId="115"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Multicolumn" dataDxfId="114"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="SBOL Term"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Namespace URL" dataDxfId="114"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Type" dataDxfId="113" dataCellStyle="Hyperlink"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Namespace URL" dataDxfId="113"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Type" dataDxfId="112" dataCellStyle="Hyperlink"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Split On"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Pattern"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Tyto Lookup" dataDxfId="112"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Sheet Lookup" dataDxfId="111"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Replacement Lookup" dataDxfId="110"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Object_ID Lookup" dataDxfId="109"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Parent Lookup" dataDxfId="108"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Lookup Sheet Name" dataDxfId="107"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="From Col" dataDxfId="106"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="To Col" dataDxfId="105"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Ontology Name" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Tyto Lookup" dataDxfId="111"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Sheet Lookup" dataDxfId="110"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Replacement Lookup" dataDxfId="109"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Object_ID Lookup" dataDxfId="108"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Parent Lookup" dataDxfId="107"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Lookup Sheet Name" dataDxfId="106"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="From Col" dataDxfId="105"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="To Col" dataDxfId="104"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Ontology Name" dataDxfId="103"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table16" displayName="Table16" ref="A1:C38" totalsRowShown="0">
-  <autoFilter ref="A1:C38" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{9F37FFCE-DA52-4D4A-8EC3-481012495ABC}" name="Table1610" displayName="Table1610" ref="A1:C39" totalsRowShown="0">
+  <autoFilter ref="A1:C39" xr:uid="{9F37FFCE-DA52-4D4A-8EC3-481012495ABC}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sheet Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="ColName" dataDxfId="103"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="FlapjackName"/>
+    <tableColumn id="1" xr3:uid="{9F0148D0-AC0E-4E90-BB3E-8D1E4665D3F3}" name="Sheet Name"/>
+    <tableColumn id="2" xr3:uid="{BBA3452B-0F32-4EB8-8DBD-C3D239601769}" name="ColName" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{7ACA2D06-1900-4E15-827C-0E85CB30C7B2}" name="FlapjackName"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2887,7 +2863,7 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Study ID"/>
     <tableColumn id="16" xr3:uid="{00000000-0010-0000-0300-000010000000}" name="Study Name" dataDxfId="102"/>
     <tableColumn id="12" xr3:uid="{00000000-0010-0000-0300-00000C000000}" name="Description" dataDxfId="101"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DOI" dataDxfId="100"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="DOI" dataCellStyle="Hyperlink"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2897,11 +2873,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table_17" displayName="Table_17" ref="A1:F3">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Assay ID"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Assay Name" dataDxfId="99"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Machine" dataDxfId="98"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Description" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Temperature" dataDxfId="96"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Study ID" dataDxfId="95"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0400-00000B000000}" name="Assay Name" dataDxfId="100"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0400-000010000000}" name="Machine" dataDxfId="99"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0400-00000C000000}" name="Description" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Temperature" dataDxfId="97"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0400-00000F000000}" name="Study ID" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2911,13 +2887,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table_178" displayName="Table_178" ref="A1:H5">
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Sample ID"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Row" dataDxfId="94"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Column" dataDxfId="93"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Assay ID" dataDxfId="92"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Sample Design ID" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Media ID" dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Strain ID" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Vector ID" dataDxfId="88"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Row" dataDxfId="95"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0500-000010000000}" name="Column" dataDxfId="94"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0500-00000C000000}" name="Assay ID" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Sample Design ID" dataDxfId="92"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Media ID" dataDxfId="91"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Strain ID" dataDxfId="90"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="Vector ID" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2931,7 +2907,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Strain ID" dataCellStyle="Normal"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Vector ID" dataCellStyle="Normal"/>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0600-00000F000000}" name="Supplement ID" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SBOL Object Type" dataDxfId="87"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="SBOL Object Type" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2941,10 +2917,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Table_1789" displayName="Table_1789" ref="A1:E4">
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Measurement ID"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Sample ID" dataDxfId="86"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Signal ID" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Time" dataDxfId="84"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Value" dataDxfId="83"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0700-00000C000000}" name="Sample ID" dataDxfId="87"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="Signal ID" dataDxfId="86"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Time" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Value" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2954,9 +2930,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Table_17894" displayName="Table_17894" ref="A1:D3">
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Signal ID"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Signal Name" dataDxfId="82"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Signal Description" dataDxfId="81"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Signal Color" dataDxfId="80"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Signal Name" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Signal Description" dataDxfId="82"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Signal Color" dataDxfId="81"/>
   </tableColumns>
   <tableStyleInfo name="Library-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3169,37 +3145,37 @@
       <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.44140625" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="19.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
+    <col min="9" max="9" width="14.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
-        <v>199</v>
+        <v>147</v>
       </c>
       <c r="B1" s="23">
         <v>2</v>
       </c>
       <c r="C1" s="13"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="24" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>23</v>
       </c>
@@ -3207,15 +3183,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
-        <v>201</v>
+        <v>149</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>8</v>
       </c>
@@ -3247,18 +3223,18 @@
         <v>19</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L10" s="21" t="s">
         <v>0</v>
       </c>
       <c r="M10" s="21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B11" t="b">
         <v>1</v>
@@ -3273,15 +3249,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="M11" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B12" t="b">
         <v>1</v>
@@ -3296,15 +3272,15 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>142</v>
+        <v>124</v>
       </c>
       <c r="M12" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B13" t="b">
         <v>1</v>
@@ -3319,15 +3295,15 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="M13" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3342,12 +3318,12 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B15" t="b">
         <v>1</v>
@@ -3365,12 +3341,12 @@
         <v>21</v>
       </c>
       <c r="M15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B16" t="b">
         <v>1</v>
@@ -3385,15 +3361,15 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="M16" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
@@ -3414,12 +3390,12 @@
         <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B18" t="b">
         <v>0</v>
@@ -3434,12 +3410,12 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="b">
         <v>0</v>
@@ -3457,10 +3433,10 @@
         <v>21</v>
       </c>
       <c r="K19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -3483,13 +3459,13 @@
         <v>2</v>
       </c>
       <c r="L20" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="M20" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>2</v>
       </c>
@@ -3509,18 +3485,18 @@
         <v>21</v>
       </c>
       <c r="K21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
@@ -3535,9 +3511,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" t="b">
         <v>0</v>
@@ -3570,39 +3546,39 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>149</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>178</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
+        <v>178</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3618,34 +3594,34 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3660,65 +3636,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>196</v>
+      </c>
+      <c r="E2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>195</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
+      </c>
+      <c r="E3" s="1">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -3735,58 +3713,58 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="12" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="12" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>55</v>
+        <v>196</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" t="s">
-        <v>177</v>
+        <v>195</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -3801,19 +3779,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="11" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
@@ -3824,50 +3802,50 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1">
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15" customHeight="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="7"/>
     </row>
-    <row r="29" ht="16"/>
-    <row r="30" ht="16"/>
-    <row r="32" ht="16"/>
-    <row r="39" ht="16"/>
-    <row r="41" ht="16"/>
-    <row r="42" ht="16"/>
-    <row r="44" ht="16"/>
-    <row r="45" ht="16"/>
-    <row r="47" ht="16"/>
-    <row r="48" ht="16"/>
-    <row r="50" ht="16"/>
-    <row r="56" ht="16"/>
-    <row r="58" ht="16"/>
-    <row r="59" ht="16"/>
-    <row r="60" ht="16"/>
-    <row r="61" ht="16"/>
-    <row r="62" ht="16"/>
-    <row r="64" ht="16"/>
-    <row r="65" ht="16"/>
+    <row r="29" x14ac:dyDescent="0.2"/>
+    <row r="30" x14ac:dyDescent="0.2"/>
+    <row r="32" x14ac:dyDescent="0.2"/>
+    <row r="39" x14ac:dyDescent="0.2"/>
+    <row r="41" x14ac:dyDescent="0.2"/>
+    <row r="42" x14ac:dyDescent="0.2"/>
+    <row r="44" x14ac:dyDescent="0.2"/>
+    <row r="45" x14ac:dyDescent="0.2"/>
+    <row r="47" x14ac:dyDescent="0.2"/>
+    <row r="48" x14ac:dyDescent="0.2"/>
+    <row r="50" x14ac:dyDescent="0.2"/>
+    <row r="56" x14ac:dyDescent="0.2"/>
+    <row r="58" x14ac:dyDescent="0.2"/>
+    <row r="59" x14ac:dyDescent="0.2"/>
+    <row r="60" x14ac:dyDescent="0.2"/>
+    <row r="61" x14ac:dyDescent="0.2"/>
+    <row r="62" x14ac:dyDescent="0.2"/>
+    <row r="64" x14ac:dyDescent="0.2"/>
+    <row r="65" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3882,16 +3860,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="9" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="3" max="9" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -3899,49 +3879,49 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15" customHeight="1">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="28" ht="16"/>
-    <row r="29" ht="16"/>
-    <row r="31" ht="16"/>
-    <row r="38" ht="16"/>
-    <row r="40" ht="16"/>
-    <row r="41" ht="16"/>
-    <row r="43" ht="16"/>
-    <row r="44" ht="16"/>
-    <row r="46" ht="16"/>
-    <row r="47" ht="16"/>
-    <row r="49" ht="16"/>
-    <row r="55" ht="16"/>
-    <row r="57" ht="16"/>
-    <row r="58" ht="16"/>
-    <row r="59" ht="16"/>
-    <row r="60" ht="16"/>
-    <row r="61" ht="16"/>
-    <row r="63" ht="16"/>
-    <row r="64" ht="16"/>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="28" x14ac:dyDescent="0.2"/>
+    <row r="29" x14ac:dyDescent="0.2"/>
+    <row r="31" x14ac:dyDescent="0.2"/>
+    <row r="38" x14ac:dyDescent="0.2"/>
+    <row r="40" x14ac:dyDescent="0.2"/>
+    <row r="41" x14ac:dyDescent="0.2"/>
+    <row r="43" x14ac:dyDescent="0.2"/>
+    <row r="44" x14ac:dyDescent="0.2"/>
+    <row r="46" x14ac:dyDescent="0.2"/>
+    <row r="47" x14ac:dyDescent="0.2"/>
+    <row r="49" x14ac:dyDescent="0.2"/>
+    <row r="55" x14ac:dyDescent="0.2"/>
+    <row r="57" x14ac:dyDescent="0.2"/>
+    <row r="58" x14ac:dyDescent="0.2"/>
+    <row r="59" x14ac:dyDescent="0.2"/>
+    <row r="60" x14ac:dyDescent="0.2"/>
+    <row r="61" x14ac:dyDescent="0.2"/>
+    <row r="63" x14ac:dyDescent="0.2"/>
+    <row r="64" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -3960,83 +3940,83 @@
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="60.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="17" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="17" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
     </row>
   </sheetData>
@@ -4050,29 +4030,29 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="31" max="31" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13.109375" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="44" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4098,28 +4078,28 @@
       <selection pane="bottomRight" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="32" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" customWidth="1"/>
+    <col min="7" max="7" width="9.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.33203125" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" customWidth="1"/>
+    <col min="15" max="15" width="7.109375" customWidth="1"/>
+    <col min="16" max="16" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="32" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15" customHeight="1">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -4127,7 +4107,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>151</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -4172,12 +4152,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15" customHeight="1">
+    <row r="2" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" t="s">
@@ -4210,12 +4190,12 @@
       </c>
       <c r="Q2" s="7"/>
     </row>
-    <row r="3" spans="1:17" ht="15" customHeight="1">
+    <row r="3" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="7" t="s">
@@ -4251,16 +4231,16 @@
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>43</v>
@@ -4292,16 +4272,16 @@
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="7" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>43</v>
@@ -4333,12 +4313,12 @@
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
     </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1">
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" t="s">
@@ -4371,12 +4351,12 @@
       </c>
       <c r="Q6" s="7"/>
     </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="7" t="s">
@@ -4409,16 +4389,16 @@
       </c>
       <c r="Q7" s="7"/>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>36</v>
@@ -4447,16 +4427,16 @@
       </c>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>43</v>
@@ -4485,16 +4465,16 @@
       </c>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="9" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>36</v>
@@ -4523,16 +4503,16 @@
       </c>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>129</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="30"/>
+        <v>113</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="29"/>
       <c r="D11" s="8" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>43</v>
@@ -4560,12 +4540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1">
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" t="s">
@@ -4598,16 +4578,16 @@
       </c>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="20" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>43</v>
@@ -4636,16 +4616,16 @@
       </c>
       <c r="Q13" s="7"/>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>36</v>
@@ -4674,16 +4654,16 @@
       </c>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>36</v>
@@ -4712,16 +4692,16 @@
       </c>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="20" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>43</v>
@@ -4749,16 +4729,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="30"/>
+        <v>108</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="29"/>
       <c r="D17" s="8" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>43</v>
@@ -4786,16 +4766,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C18" s="30"/>
+        <v>108</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="29"/>
       <c r="D18" s="8" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>43</v>
@@ -4823,16 +4803,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="15" customHeight="1">
+    <row r="19" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="8" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>43</v>
@@ -4860,12 +4840,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="C20" s="11"/>
       <c r="D20" t="s">
@@ -4897,16 +4877,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15" customHeight="1">
+    <row r="21" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="20" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>43</v>
@@ -4934,16 +4914,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="20" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>43</v>
@@ -4971,16 +4951,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="20" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>43</v>
@@ -5008,16 +4988,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="20" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>43</v>
@@ -5045,12 +5025,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C25" s="11"/>
       <c r="D25" t="s">
@@ -5086,12 +5066,12 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="7" t="s">
@@ -5127,16 +5107,16 @@
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C27" s="11"/>
       <c r="D27" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>43</v>
@@ -5164,16 +5144,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C28" s="11"/>
       <c r="D28" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>36</v>
@@ -5201,12 +5181,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" t="s">
@@ -5238,16 +5218,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>36</v>
@@ -5275,16 +5255,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>43</v>
@@ -5312,12 +5292,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" t="s">
@@ -5349,12 +5329,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="7" t="s">
@@ -5386,16 +5366,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>43</v>
@@ -5423,12 +5403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" customHeight="1">
+    <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" t="s">
@@ -5460,16 +5440,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" customHeight="1">
+    <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>36</v>
@@ -5501,16 +5481,16 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="1:17" ht="15" customHeight="1">
+    <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="E37" s="4" t="s">
         <v>43</v>
@@ -5538,12 +5518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" customHeight="1">
+    <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="11" t="s">
         <v>77</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="7" t="s">
@@ -5575,16 +5555,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" customHeight="1">
+    <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C39" s="11"/>
       <c r="D39" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>36</v>
@@ -5612,12 +5592,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" customHeight="1">
+    <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" s="16" t="s">
         <v>48</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>49</v>
       </c>
       <c r="C40" s="16"/>
       <c r="D40" t="s">
@@ -5649,12 +5629,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" customHeight="1">
+    <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C41" s="16"/>
       <c r="D41" s="7" t="s">
@@ -5686,16 +5666,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" customHeight="1">
+    <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C42" s="11"/>
       <c r="D42" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>43</v>
@@ -5723,16 +5703,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" customHeight="1">
+    <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C43" s="16"/>
       <c r="D43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E43" s="4" t="s">
         <v>36</v>
@@ -5760,7 +5740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" customHeight="1">
+    <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>35</v>
       </c>
@@ -5797,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" customHeight="1">
+    <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>35</v>
       </c>
@@ -5806,7 +5786,7 @@
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="28" t="s">
-        <v>216</v>
+        <v>163</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>43</v>
@@ -5834,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" customHeight="1">
+    <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>35</v>
       </c>
@@ -5871,7 +5851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" customHeight="1">
+    <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>2</v>
       </c>
@@ -5908,7 +5888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" customHeight="1">
+    <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>2</v>
       </c>
@@ -5945,9 +5925,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="15" customHeight="1">
+    <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>19</v>
@@ -5982,16 +5962,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="15" customHeight="1">
+    <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>43</v>
@@ -6019,26 +5999,26 @@
         <v>0</v>
       </c>
       <c r="N50" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="O50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="P50" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17" ht="15" customHeight="1">
+    <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>43</v>
@@ -6066,19 +6046,19 @@
         <v>0</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="15" customHeight="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="C52" s="30"/>
+        <v>146</v>
+      </c>
+      <c r="B52" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="29"/>
       <c r="D52" t="s">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="E52" s="4" t="s">
         <v>36</v>
@@ -6107,250 +6087,250 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="62" priority="44" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="61" priority="43" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="44" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I16">
-    <cfRule type="cellIs" dxfId="59" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="31" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="32" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I35:I36">
-    <cfRule type="cellIs" dxfId="57" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="136" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="135" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I50:I51">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="55" priority="9" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="10" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I21:K24 M21:M24">
-    <cfRule type="cellIs" dxfId="53" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="57" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="58" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I37:K37">
+    <cfRule type="cellIs" dxfId="52" priority="126" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="51" priority="125" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="126" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45:K45 M45">
+    <cfRule type="cellIs" dxfId="50" priority="245" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="246" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45:K45 M45">
-    <cfRule type="cellIs" dxfId="49" priority="246" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="245" operator="equal">
+  <conditionalFormatting sqref="I2:M12">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I2:M12">
-    <cfRule type="cellIs" dxfId="47" priority="5" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="6" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:M15">
-    <cfRule type="cellIs" dxfId="45" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="35" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="36" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:M20">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25:M34">
+    <cfRule type="cellIs" dxfId="42" priority="82" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I25:M34">
     <cfRule type="cellIs" dxfId="41" priority="81" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="82" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38:M44">
+    <cfRule type="cellIs" dxfId="40" priority="118" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38:M44">
-    <cfRule type="cellIs" dxfId="39" priority="118" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="117" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:M49">
+    <cfRule type="cellIs" dxfId="38" priority="17" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="37" priority="18" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="17" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:M52">
+    <cfRule type="cellIs" dxfId="36" priority="7" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:M52">
     <cfRule type="cellIs" dxfId="35" priority="8" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="34" priority="41" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13">
     <cfRule type="cellIs" dxfId="33" priority="42" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="41" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="30" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="29" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:J36">
-    <cfRule type="cellIs" dxfId="29" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="133" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="134" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J50">
+    <cfRule type="cellIs" dxfId="28" priority="11" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J51:M51">
+    <cfRule type="cellIs" dxfId="26" priority="14" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J51:M51">
-    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="24" priority="40" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13">
     <cfRule type="cellIs" dxfId="23" priority="39" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="40" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="cellIs" dxfId="22" priority="28" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K16">
-    <cfRule type="cellIs" dxfId="21" priority="28" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:K36">
+    <cfRule type="cellIs" dxfId="20" priority="131" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="19" priority="132" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="131" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K50:M50">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K50:M50">
-    <cfRule type="cellIs" dxfId="17" priority="15" operator="equal">
+  <conditionalFormatting sqref="L16">
+    <cfRule type="cellIs" dxfId="16" priority="33" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L16">
-    <cfRule type="cellIs" dxfId="15" priority="34" operator="equal">
-      <formula>FALSE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="33" operator="equal">
+  <conditionalFormatting sqref="L21:L24">
+    <cfRule type="cellIs" dxfId="14" priority="55" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L21:L24">
-    <cfRule type="cellIs" dxfId="13" priority="55" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="56" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L37">
+    <cfRule type="cellIs" dxfId="12" priority="123" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="11" priority="124" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="123" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L45">
+    <cfRule type="cellIs" dxfId="10" priority="147" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L45">
     <cfRule type="cellIs" dxfId="9" priority="148" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="147" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:M13">
+    <cfRule type="cellIs" dxfId="8" priority="45" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:M13">
-    <cfRule type="cellIs" dxfId="7" priority="45" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="46" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35:M36">
+    <cfRule type="cellIs" dxfId="6" priority="129" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
     <cfRule type="cellIs" dxfId="5" priority="130" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="129" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M16">
-    <cfRule type="cellIs" dxfId="3" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="26" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M37">
-    <cfRule type="cellIs" dxfId="1" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="121" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="122" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6422,100 +6402,100 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>182</v>
+        <v>131</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>83</v>
-      </c>
       <c r="C2" s="8" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="8"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="28" t="s">
-        <v>185</v>
-      </c>
-      <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E4" s="8"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" s="27" t="s">
+      <c r="C5" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E5" s="8"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>51</v>
-      </c>
       <c r="C6" s="8" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>35</v>
       </c>
@@ -6523,11 +6503,11 @@
         <v>40</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>35</v>
       </c>
@@ -6535,111 +6515,113 @@
         <v>39</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="E9" s="8"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="E10" s="8"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="E11" s="8"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="C12" s="8"/>
+        <v>82</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>155</v>
+      </c>
       <c r="E12" s="8"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="E13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="G15" s="8"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>2</v>
       </c>
@@ -6647,315 +6629,324 @@
         <v>41</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="G18" s="8"/>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>191</v>
+        <v>139</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B21" s="28" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C21" s="28" t="s">
-        <v>212</v>
+        <v>159</v>
       </c>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>193</v>
+        <v>141</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>194</v>
+        <v>142</v>
       </c>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>211</v>
+        <v>158</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>205</v>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>206</v>
+        <v>108</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="8" t="s">
-        <v>122</v>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>208</v>
+        <v>153</v>
       </c>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="8" t="s">
-        <v>122</v>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>209</v>
+        <v>154</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="8" t="s">
-        <v>122</v>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B29" s="28" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>210</v>
+        <v>155</v>
       </c>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>184</v>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>156</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>187</v>
+        <v>143</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B33" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>204</v>
       </c>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>196</v>
+        <v>113</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>152</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B35" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>144</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>184</v>
       </c>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B36" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>187</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="B37" s="27" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="27"/>
+        <v>125</v>
+      </c>
+      <c r="B38" s="27" t="s">
+        <v>127</v>
+      </c>
       <c r="C38" s="8" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" s="27"/>
+      <c r="C39" s="8" t="s">
+        <v>145</v>
+      </c>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
       <c r="I40" s="8"/>
@@ -6975,52 +6966,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1"/>
+        <v>168</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E91034A3-592C-43E7-9A90-79D511E0245E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7030,79 +7026,79 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D2" s="7" t="s">
+      <c r="C3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="E2">
-        <v>37</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
-      <c r="A3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="E3">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7119,49 +7115,51 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+    <col min="5" max="5" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5546875" customWidth="1"/>
+    <col min="8" max="8" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1">
-      <c r="A2" t="s">
-        <v>79</v>
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -7170,24 +7168,24 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>149</v>
-      </c>
-      <c r="G2" t="s">
-        <v>162</v>
+        <v>174</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="H2" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>160</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -7196,24 +7194,24 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G3" t="s">
-        <v>162</v>
+        <v>175</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1">
-      <c r="A4" t="s">
-        <v>159</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7221,25 +7219,25 @@
       <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>126</v>
-      </c>
-      <c r="E4" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" t="s">
-        <v>149</v>
-      </c>
-      <c r="G4" t="s">
-        <v>162</v>
+      <c r="D4" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1">
-      <c r="A5" t="s">
-        <v>161</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -7247,20 +7245,20 @@
       <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F5" t="s">
-        <v>149</v>
-      </c>
-      <c r="G5" t="s">
-        <v>162</v>
+      <c r="D5" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -7276,73 +7274,73 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="28.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="15" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="15" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1">
-      <c r="A2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>172</v>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>181</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>171</v>
+        <v>177</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -7363,43 +7361,43 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="14" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.109375" customWidth="1"/>
+    <col min="4" max="5" width="11.109375" customWidth="1"/>
+    <col min="6" max="14" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15" customHeight="1">
-      <c r="A2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" t="s">
-        <v>79</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -7408,43 +7406,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B3" t="s">
-        <v>79</v>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.0331332673616959E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C4" t="s">
-        <v>155</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>185</v>
       </c>
       <c r="D4">
         <v>0.25</v>
       </c>
       <c r="E4">
-        <v>1.953695018296177</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1"/>
-    <row r="6" spans="1:5" ht="15" customHeight="1"/>
-    <row r="7" spans="1:5" ht="15" customHeight="1"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -7458,58 +7456,58 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="13" width="8.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
+    <col min="5" max="13" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1">
+    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" t="s">
-        <v>105</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>157</v>
+        <v>189</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>155</v>
+        <v>185</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>100</v>
+        <v>188</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
